--- a/ex.xlsx
+++ b/ex.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>8E</t>
   </si>
@@ -28,6 +28,9 @@
     <t>11E</t>
   </si>
   <si>
+    <t>Wed</t>
+  </si>
+  <si>
     <t>Химия (G1234re213)</t>
   </si>
   <si>
@@ -35,6 +38,9 @@
   </si>
   <si>
     <t>Химия (Greeeg)</t>
+  </si>
+  <si>
+    <t>Thur</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,34 +389,88 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="B31" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
